--- a/gd/数值规划/技能分布.xlsx
+++ b/gd/数值规划/技能分布.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuuki\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\数值规划\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="225">
   <si>
     <t>前期玩法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,10 +290,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单体物理纯伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前置技能（群体buff）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -302,10 +298,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>群体物理纯伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单体力量提升</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -530,10 +522,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单体物理纯伤害（高、中、低）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单体力量提升/降低</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -849,6 +837,86 @@
   </si>
   <si>
     <t>塔考D输出或S驱散玩法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体打断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小招附带概率打断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小招添加打断效果标记buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体火物理纯伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体水物理纯伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体草物理纯伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体光物理纯伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体暗物理纯伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体火物理纯伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体水物理纯伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体草物理纯伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体光物理纯伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体暗物理纯伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体火物理纯伤害（高、中、低）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体水物理纯伤害（高、中、低）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体草物理纯伤害（高、中、低）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体光物理纯伤害（高、中、低）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体暗物理纯伤害（高、中、低）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1335,7 +1403,7 @@
       <c r="R2" s="20"/>
       <c r="S2" s="20"/>
       <c r="T2" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="U2" s="20"/>
       <c r="V2" s="20"/>
@@ -1365,7 +1433,7 @@
         <v>44</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.15">
@@ -1381,7 +1449,7 @@
         <v>42</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.15">
@@ -1402,7 +1470,7 @@
         <v>61</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.15">
@@ -1423,7 +1491,7 @@
         <v>43</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.15">
@@ -1439,7 +1507,7 @@
         <v>59</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.15">
@@ -1455,7 +1523,7 @@
         <v>45</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.15">
@@ -1463,7 +1531,7 @@
         <v>11</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.15">
@@ -1491,7 +1559,7 @@
         <v>46</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.15">
@@ -1502,7 +1570,7 @@
         <v>47</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.15">
@@ -1518,7 +1586,7 @@
         <v>49</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="3:20" x14ac:dyDescent="0.15">
@@ -1546,10 +1614,10 @@
     </row>
     <row r="40" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C40" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="3:20" x14ac:dyDescent="0.15">
@@ -1592,7 +1660,7 @@
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.15">
       <c r="D49" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -1612,7 +1680,7 @@
         <v>52</v>
       </c>
       <c r="T52" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.15">
@@ -1633,7 +1701,7 @@
         <v>27</v>
       </c>
       <c r="T55" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.15">
@@ -1676,7 +1744,7 @@
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D65" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1692,11 +1760,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI45"/>
+  <dimension ref="A1:AI56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q17" sqref="Q17"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1731,10 +1799,10 @@
   <sheetData>
     <row r="1" spans="1:35" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
@@ -1742,7 +1810,7 @@
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
       <c r="H1" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
@@ -1750,7 +1818,7 @@
       <c r="L1" s="20"/>
       <c r="M1" s="20"/>
       <c r="N1" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O1" s="20"/>
       <c r="P1" s="20"/>
@@ -1758,7 +1826,7 @@
       <c r="R1" s="20"/>
       <c r="S1" s="20"/>
       <c r="T1" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="U1" s="20"/>
       <c r="V1" s="20"/>
@@ -1774,7 +1842,7 @@
       <c r="AD1" s="20"/>
       <c r="AE1" s="20"/>
       <c r="AF1" s="14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:35" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.15">
@@ -1814,57 +1882,57 @@
       <c r="A3" s="5"/>
       <c r="B3" s="3"/>
       <c r="C3" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="O3" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
       <c r="U3" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="V3" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="W3" s="3"/>
       <c r="AA3" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AB3" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
       <c r="AG3" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AH3" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AI3" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:35" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1884,692 +1952,831 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>127</v>
+        <v>220</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D5" s="9"/>
       <c r="H5" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J5" s="9"/>
       <c r="N5" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="P5" s="9"/>
       <c r="T5" s="1" t="s">
-        <v>66</v>
+        <v>210</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="V5" s="9"/>
       <c r="Z5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB5" s="18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="B6" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="H6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AA5" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB5" s="18" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="H6" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J6" s="9"/>
       <c r="N6" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="P6" s="9"/>
       <c r="T6" s="1" t="s">
-        <v>69</v>
+        <v>211</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="V6" s="9"/>
       <c r="Z6" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AB6" s="16"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="B7" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="9"/>
       <c r="H7" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J7" s="9"/>
       <c r="N7" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="P7" s="9"/>
       <c r="T7" s="1" t="s">
-        <v>73</v>
+        <v>212</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="V7" s="9"/>
       <c r="Z7" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AB7" s="16"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="B8" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="9"/>
       <c r="H8" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J8" s="9"/>
       <c r="N8" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="P8" s="9"/>
       <c r="T8" s="1" t="s">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="V8" s="9"/>
       <c r="Z8" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AB8" s="16"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="9"/>
       <c r="H9" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J9" s="9"/>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
       <c r="T9" s="1" t="s">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="V9" s="9"/>
       <c r="Z9" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AB9" s="16"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.15">
       <c r="H10" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J10" s="9"/>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
       <c r="T10" s="1" t="s">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="V10" s="9"/>
       <c r="Z10" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AB10" s="16"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.15">
       <c r="T11" s="1" t="s">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="V11" s="9"/>
       <c r="Z11" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AB11" s="16"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.15">
       <c r="T12" s="1" t="s">
-        <v>85</v>
+        <v>217</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="V12" s="9"/>
       <c r="Z12" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AB12" s="16"/>
     </row>
     <row r="13" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="T13" s="1" t="s">
-        <v>132</v>
+        <v>218</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="V13" s="9"/>
       <c r="Z13" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AB13" s="16"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.15">
       <c r="T14" s="1" t="s">
-        <v>88</v>
+        <v>219</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="V14" s="9"/>
       <c r="Z14" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AB14" s="16"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.15">
       <c r="T15" s="1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="V15" s="9"/>
       <c r="Z15" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AB15" s="15"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.15">
       <c r="T16" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="V16" s="9"/>
       <c r="Z16" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AB16" s="15"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.15">
       <c r="T17" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="V17" s="9"/>
       <c r="Z17" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AB17" s="15"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.15">
       <c r="T18" s="1" t="s">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AB18" s="15"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.15">
       <c r="T19" s="1" t="s">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V19" s="9"/>
       <c r="Z19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB19" s="15"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="T20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="V20" s="9"/>
+      <c r="AB20" s="15"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="T21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="V21" s="9"/>
+      <c r="AB21" s="15"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="T22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="V22" s="9"/>
+      <c r="AB22" s="15"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="T23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="V23" s="9"/>
+      <c r="AB23" s="15"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="T24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="V24" s="9"/>
+      <c r="AB24" s="15"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="T25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="V25" s="9"/>
+      <c r="AB25" s="15"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="T26" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="V26" s="9"/>
+      <c r="AB26" s="15"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="T27" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="V27" s="9"/>
+      <c r="AB27" s="15"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="V28" s="9"/>
+      <c r="AB28" s="15"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="V29" s="9"/>
+      <c r="AB29" s="15"/>
+    </row>
+    <row r="32" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="14:28" x14ac:dyDescent="0.15">
+      <c r="N33" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P33" s="12"/>
+      <c r="T33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="V33" s="12"/>
+      <c r="Z33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB33" s="12"/>
+    </row>
+    <row r="34" spans="14:28" x14ac:dyDescent="0.15">
+      <c r="N34" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P34" s="12"/>
+      <c r="T34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="V34" s="12"/>
+      <c r="Z34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA34" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB34" s="12"/>
+    </row>
+    <row r="35" spans="14:28" x14ac:dyDescent="0.15">
+      <c r="N35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P35" s="12"/>
+      <c r="T35" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AA19" s="1" t="s">
+      <c r="U35" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="V35" s="12"/>
+      <c r="Z35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA35" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB35" s="9"/>
+    </row>
+    <row r="36" spans="14:28" x14ac:dyDescent="0.15">
+      <c r="N36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P36" s="12"/>
+      <c r="T36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="V36" s="12"/>
+      <c r="Z36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB36" s="9"/>
+    </row>
+    <row r="37" spans="14:28" x14ac:dyDescent="0.15">
+      <c r="N37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P37" s="12"/>
+      <c r="T37" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="V37" s="12"/>
+      <c r="Z37" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA37" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB37" s="12"/>
+    </row>
+    <row r="38" spans="14:28" x14ac:dyDescent="0.15">
+      <c r="N38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P38" s="12"/>
+      <c r="T38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="V38" s="12"/>
+      <c r="Z38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA38" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB38" s="9"/>
+    </row>
+    <row r="39" spans="14:28" x14ac:dyDescent="0.15">
+      <c r="N39" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P39" s="12"/>
+      <c r="T39" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="V39" s="18"/>
+      <c r="Z39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA39" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB39" s="9"/>
+    </row>
+    <row r="40" spans="14:28" x14ac:dyDescent="0.15">
+      <c r="T40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="V40" s="18"/>
+      <c r="Z40" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA40" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB40" s="9"/>
+    </row>
+    <row r="41" spans="14:28" x14ac:dyDescent="0.15">
+      <c r="N41" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="V41" s="9"/>
+      <c r="Z41" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA41" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB41" s="12"/>
+    </row>
+    <row r="42" spans="14:28" x14ac:dyDescent="0.15">
+      <c r="O42" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="U42" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AB19" s="15"/>
-    </row>
-    <row r="22" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="N23" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O23" s="1" t="s">
+      <c r="V42" s="9"/>
+      <c r="Z42" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA42" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB42" s="18"/>
+    </row>
+    <row r="43" spans="14:28" x14ac:dyDescent="0.15">
+      <c r="O43" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="U43" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="P23" s="12"/>
-      <c r="T23" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="V23" s="12"/>
-      <c r="Z23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA23" s="1" t="s">
+      <c r="V43" s="18"/>
+      <c r="Z43" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA43" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB43" s="12"/>
+    </row>
+    <row r="44" spans="14:28" x14ac:dyDescent="0.15">
+      <c r="T44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="V44" s="9"/>
+      <c r="Z44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA44" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB44" s="18"/>
+    </row>
+    <row r="45" spans="14:28" x14ac:dyDescent="0.15">
+      <c r="T45" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="V45" s="9"/>
+      <c r="Z45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA45" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB45" s="9"/>
+    </row>
+    <row r="46" spans="14:28" x14ac:dyDescent="0.15">
+      <c r="T46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V46" s="9"/>
+      <c r="Z46" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA46" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="AB23" s="12"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="N24" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="P24" s="12"/>
-      <c r="T24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="V24" s="12"/>
-      <c r="Z24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA24" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AB24" s="12"/>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="N25" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="P25" s="12"/>
-      <c r="T25" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="V25" s="12"/>
-      <c r="Z25" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA25" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB25" s="9"/>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="N26" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="P26" s="12"/>
-      <c r="T26" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="V26" s="12"/>
-      <c r="Z26" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA26" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB26" s="9"/>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="N27" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="P27" s="12"/>
-      <c r="T27" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="V27" s="12"/>
-      <c r="Z27" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA27" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AB27" s="12"/>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="N28" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="P28" s="12"/>
-      <c r="T28" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="V28" s="12"/>
-      <c r="Z28" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA28" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AB28" s="9"/>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="N29" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="P29" s="12"/>
-      <c r="T29" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="V29" s="18"/>
-      <c r="Z29" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA29" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB29" s="9"/>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="T30" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="V30" s="18"/>
-      <c r="Z30" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA30" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AB30" s="9"/>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="N31" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="U31" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="V31" s="9"/>
-      <c r="Z31" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA31" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AB31" s="12"/>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="O32" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="T32" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="U32" s="1" t="s">
+      <c r="AB46" s="9"/>
+    </row>
+    <row r="47" spans="14:28" x14ac:dyDescent="0.15">
+      <c r="T47" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="U47" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="V32" s="9"/>
-      <c r="Z32" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA32" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AB32" s="18"/>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="O33" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="T33" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="U33" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="V33" s="18"/>
-      <c r="Z33" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA33" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AB33" s="12"/>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="T34" s="1" t="s">
+      <c r="V47" s="9"/>
+    </row>
+    <row r="48" spans="14:28" x14ac:dyDescent="0.15">
+      <c r="T48" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="V48" s="18"/>
+    </row>
+    <row r="52" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="U34" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="V34" s="9"/>
-      <c r="Z34" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA34" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB34" s="18"/>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="T35" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="U35" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="V35" s="9"/>
-      <c r="Z35" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA35" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AB35" s="9"/>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="T36" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="U36" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="V36" s="9"/>
-      <c r="Z36" s="1" t="s">
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="N53" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P53" s="12"/>
+      <c r="T53" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AA36" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB36" s="9"/>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="T37" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="U37" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="V37" s="9"/>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="T38" s="1" t="s">
+      <c r="U53" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="V53" s="12"/>
+      <c r="Z53" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="U38" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="V38" s="18"/>
-    </row>
-    <row r="42" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="N43" s="1" t="s">
+      <c r="AA53" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB53" s="12"/>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="N54" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="O43" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="P43" s="12"/>
-      <c r="T43" s="1" t="s">
+      <c r="T54" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="U43" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="V43" s="12"/>
-      <c r="Z43" s="1" t="s">
+      <c r="U54" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="V54" s="12"/>
+      <c r="Z54" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AA43" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AB43" s="12"/>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="N44" s="1" t="s">
+      <c r="AA54" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB54" s="12"/>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="N55" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="T44" s="1" t="s">
+      <c r="T55" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="U44" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="V44" s="12"/>
-      <c r="Z44" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA44" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB44" s="12"/>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="O45" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="T45" s="1" t="s">
+      <c r="U55" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="U45" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="V45" s="12"/>
+      <c r="V55" s="12"/>
+      <c r="Z55" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA55" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB55" s="12"/>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="N56" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="P56" s="18"/>
+      <c r="T56" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="U56" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="V56" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/gd/数值规划/技能分布.xlsx
+++ b/gd/数值规划/技能分布.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="226">
   <si>
     <t>前期玩法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -744,10 +744,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D,S</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -917,6 +913,14 @@
   </si>
   <si>
     <t>单体暗物理纯伤害（高、中、低）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体buff/debuff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1403,7 +1407,7 @@
       <c r="R2" s="20"/>
       <c r="S2" s="20"/>
       <c r="T2" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U2" s="20"/>
       <c r="V2" s="20"/>
@@ -1433,7 +1437,7 @@
         <v>44</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.15">
@@ -1449,7 +1453,7 @@
         <v>42</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.15">
@@ -1470,7 +1474,7 @@
         <v>61</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.15">
@@ -1491,7 +1495,7 @@
         <v>43</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.15">
@@ -1507,7 +1511,7 @@
         <v>59</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.15">
@@ -1523,7 +1527,7 @@
         <v>45</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.15">
@@ -1531,7 +1535,7 @@
         <v>11</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.15">
@@ -1559,7 +1563,7 @@
         <v>46</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.15">
@@ -1570,7 +1574,7 @@
         <v>47</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.15">
@@ -1586,7 +1590,7 @@
         <v>49</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="3:20" x14ac:dyDescent="0.15">
@@ -1614,10 +1618,10 @@
     </row>
     <row r="40" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C40" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="3:20" x14ac:dyDescent="0.15">
@@ -1680,7 +1684,7 @@
         <v>52</v>
       </c>
       <c r="T52" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.15">
@@ -1701,7 +1705,7 @@
         <v>27</v>
       </c>
       <c r="T55" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.15">
@@ -1762,9 +1766,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1952,7 +1956,7 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>159</v>
@@ -1973,7 +1977,7 @@
       </c>
       <c r="P5" s="9"/>
       <c r="T5" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>162</v>
@@ -1991,7 +1995,7 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>159</v>
@@ -2012,7 +2016,7 @@
       </c>
       <c r="P6" s="9"/>
       <c r="T6" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>162</v>
@@ -2028,7 +2032,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>159</v>
@@ -2049,7 +2053,7 @@
       </c>
       <c r="P7" s="9"/>
       <c r="T7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>162</v>
@@ -2065,7 +2069,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>159</v>
@@ -2086,7 +2090,7 @@
       </c>
       <c r="P8" s="9"/>
       <c r="T8" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>162</v>
@@ -2102,7 +2106,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>159</v>
@@ -2118,7 +2122,7 @@
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
       <c r="T9" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>162</v>
@@ -2143,7 +2147,7 @@
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
       <c r="T10" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>162</v>
@@ -2159,7 +2163,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.15">
       <c r="T11" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>162</v>
@@ -2175,7 +2179,7 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.15">
       <c r="T12" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>162</v>
@@ -2191,7 +2195,7 @@
     </row>
     <row r="13" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="T13" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>162</v>
@@ -2207,7 +2211,7 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.15">
       <c r="T14" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>162</v>
@@ -2276,9 +2280,7 @@
       <c r="U18" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="V18" s="12" t="s">
-        <v>165</v>
-      </c>
+      <c r="V18" s="9"/>
       <c r="Z18" s="1" t="s">
         <v>94</v>
       </c>
@@ -2370,7 +2372,9 @@
       <c r="U26" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="V26" s="9"/>
+      <c r="V26" s="12" t="s">
+        <v>165</v>
+      </c>
       <c r="AB26" s="15"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.15">
@@ -2384,11 +2388,17 @@
       <c r="AB27" s="15"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="V28" s="9"/>
+      <c r="T28" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="V28" s="12"/>
       <c r="AB28" s="15"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="V29" s="9"/>
+      <c r="V29" s="11"/>
       <c r="AB29" s="15"/>
     </row>
     <row r="32" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -2415,7 +2425,7 @@
         <v>97</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AB33" s="12"/>
     </row>
@@ -2484,7 +2494,7 @@
         <v>103</v>
       </c>
       <c r="AA36" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="AB36" s="9"/>
     </row>
@@ -2553,7 +2563,7 @@
         <v>109</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AB39" s="9"/>
     </row>
@@ -2607,7 +2617,7 @@
         <v>143</v>
       </c>
       <c r="AA42" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AB42" s="18"/>
     </row>
@@ -2642,7 +2652,7 @@
         <v>113</v>
       </c>
       <c r="AA44" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AB44" s="18"/>
     </row>
@@ -2651,7 +2661,7 @@
         <v>144</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="V45" s="9"/>
       <c r="Z45" s="1" t="s">
@@ -2667,14 +2677,14 @@
         <v>116</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V46" s="9"/>
       <c r="Z46" s="1" t="s">
         <v>147</v>
       </c>
       <c r="AA46" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AB46" s="9"/>
     </row>
@@ -2683,7 +2693,7 @@
         <v>146</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V47" s="9"/>
     </row>
@@ -2692,7 +2702,7 @@
         <v>148</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="V48" s="18"/>
     </row>
@@ -2755,7 +2765,7 @@
       </c>
       <c r="V55" s="12"/>
       <c r="Z55" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AA55" s="1" t="s">
         <v>159</v>
@@ -2764,17 +2774,17 @@
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.15">
       <c r="N56" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="O56" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="P56" s="18"/>
       <c r="T56" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="U56" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="U56" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="V56" s="9"/>
     </row>
